--- a/DataDriven/Data.xlsx
+++ b/DataDriven/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Selenium-Projects\DataDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C840776-7FB1-486C-B8F4-A395088E6329}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39C9704-9B2A-4030-A474-4CFC02CA5015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="1116" windowWidth="14796" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Dhananjayan</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>ABR</t>
-  </si>
-  <si>
-    <t>Response</t>
   </si>
   <si>
     <t>Incubation</t>
@@ -481,7 +478,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -494,7 +491,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -535,9 +532,7 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -565,7 +560,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
